--- a/transaction.xlsx
+++ b/transaction.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\file_sys\work\workspace\osrs_stocks_1_23_20\osrs_stocks\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44776B9-83E7-428D-9806-EE2555A626FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="90" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -71,13 +65,47 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>saradomin brew(4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>blood rune</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>stamina potion(4)</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>zulrah's scales</t>
+  </si>
+  <si>
+    <t>dharok's greataxe</t>
+  </si>
+  <si>
+    <t>prayer potion(2)</t>
+  </si>
+  <si>
+    <t>super restore(3)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,14 +142,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -168,7 +188,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -200,27 +220,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -252,24 +254,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,16 +429,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,6 +487,430 @@
       </c>
       <c r="Q1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>6130</v>
+      </c>
+      <c r="D2">
+        <v>6199</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>2020</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>23</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>26</v>
+      </c>
+      <c r="L2">
+        <v>2020</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>23</v>
+      </c>
+      <c r="O2">
+        <v>21</v>
+      </c>
+      <c r="P2">
+        <v>51</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>337</v>
+      </c>
+      <c r="D3">
+        <v>340</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>2020</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>23</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>27</v>
+      </c>
+      <c r="L3">
+        <v>2020</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>23</v>
+      </c>
+      <c r="O3">
+        <v>20</v>
+      </c>
+      <c r="P3">
+        <v>32</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>6204</v>
+      </c>
+      <c r="D4">
+        <v>6275</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>2020</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>23</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4">
+        <v>28</v>
+      </c>
+      <c r="L4">
+        <v>2020</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>24</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>6313</v>
+      </c>
+      <c r="D5">
+        <v>6449</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>2020</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>24</v>
+      </c>
+      <c r="J5">
+        <v>17</v>
+      </c>
+      <c r="K5">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>245</v>
+      </c>
+      <c r="D6">
+        <v>249</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6">
+        <v>2020</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>24</v>
+      </c>
+      <c r="J6">
+        <v>17</v>
+      </c>
+      <c r="K6">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>721007</v>
+      </c>
+      <c r="D7">
+        <v>735000</v>
+      </c>
+      <c r="E7">
+        <v>0.015</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <v>2020</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>24</v>
+      </c>
+      <c r="J7">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>5897</v>
+      </c>
+      <c r="D8">
+        <v>7744</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8">
+        <v>2020</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>24</v>
+      </c>
+      <c r="J8">
+        <v>17</v>
+      </c>
+      <c r="K8">
+        <v>38</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>9752</v>
+      </c>
+      <c r="D9">
+        <v>9895</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9">
+        <v>2020</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>24</v>
+      </c>
+      <c r="J9">
+        <v>17</v>
+      </c>
+      <c r="K9">
+        <v>39</v>
+      </c>
+      <c r="L9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
